--- a/settings.xlsx
+++ b/settings.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t xml:space="preserve">Artists</t>
   </si>
@@ -77,6 +77,9 @@
   </si>
   <si>
     <t xml:space="preserve">Shiur Klali</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test 1</t>
   </si>
   <si>
     <t xml:space="preserve">Mishna Yomis</t>
@@ -94,6 +97,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -115,6 +119,7 @@
       <color rgb="FF6A8759"/>
       <name val="JetBrains Mono"/>
       <family val="3"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -159,8 +164,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -241,98 +250,104 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
+      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="44.6"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="0" t="n">
+      <c r="F2" s="1" t="n">
         <v>5783</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="1" t="s">
+      <c r="A7" s="0" t="s">
         <v>19</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="C:/Users/Win10/Desktop"/>
+    <hyperlink ref="E2" r:id="rId1" display="C:/Users/Win10/Desktop/tomo dev/audio_icon.jpg"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
